--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1321.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1321.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.040435903203518</v>
+        <v>0.9704472422599792</v>
       </c>
       <c r="B1">
-        <v>2.506985206041153</v>
+        <v>1.727505564689636</v>
       </c>
       <c r="C1">
-        <v>5.074340926657606</v>
+        <v>5.780312061309814</v>
       </c>
       <c r="D1">
-        <v>2.273066398337023</v>
+        <v>3.525047302246094</v>
       </c>
       <c r="E1">
-        <v>1.239232204996734</v>
+        <v>0.5851475596427917</v>
       </c>
     </row>
   </sheetData>
